--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_24.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1412884.612013303</v>
+        <v>975362.0584466169</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>328.0287908880682</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>300.6320823193856</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>32.19046171692406</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>43.60620160013919</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>176.9102945984801</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>132.8669678359351</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>13.72101765531088</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>201.1407479991916</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>136.8986664834661</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>276.7056555526088</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>174.5477110993519</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>83.58354151325305</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>271.7818641996877</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>128.8600227351207</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,16 +2059,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>119.4042217342638</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>33.35146980185944</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>17.18566108282436</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>33.35146980185944</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>130.8636020495564</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>33.35146980185854</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2570,7 +2570,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>51.1154499902711</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>57.64843562452468</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3013,10 +3013,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>126.0924407648174</v>
       </c>
       <c r="Y31" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>149.2146404868048</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,13 +3196,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>6.217342626203193</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,19 +3241,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>127.8524764360001</v>
       </c>
       <c r="I37" t="n">
-        <v>105.0903281190971</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>73.70134058808645</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>101.5398871205883</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,13 +3721,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>75.25129077088322</v>
+        <v>36.29747936996207</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3958,13 +3958,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>92.47773152015056</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>24.55488982006385</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4195,13 +4195,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1958.288858935031</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.94664591678</v>
+        <v>1237.984104468507</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1237.984104468507</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>852.1958518702625</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1958.288858935031</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1958.288858935031</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>352.6741383092202</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>352.6741383092202</v>
+        <v>468.3051789791533</v>
       </c>
       <c r="V4" t="n">
-        <v>97.98965010333333</v>
+        <v>468.3051789791533</v>
       </c>
       <c r="W4" t="n">
-        <v>97.98965010333333</v>
+        <v>468.3051789791533</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>468.3051789791533</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>959.5129866402885</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C5" t="n">
-        <v>959.5129866402885</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1528.349585887292</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y5" t="n">
-        <v>1138.210253911481</v>
+        <v>802.0401021781393</v>
       </c>
     </row>
     <row r="6">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>67.80259561360776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>67.80259561360776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>67.80259561360776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>67.80259561360776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>67.80259561360776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>67.80259561360776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1954.141365880777</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C8" t="n">
-        <v>1954.141365880777</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W8" t="n">
-        <v>1954.141365880777</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X8" t="n">
-        <v>1954.141365880777</v>
+        <v>1303.877613182447</v>
       </c>
       <c r="Y8" t="n">
-        <v>1954.141365880777</v>
+        <v>913.7382812066351</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>551.8181649141598</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>551.8181649141598</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>551.8181649141598</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>551.8181649141598</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>404.9282174162494</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>551.8181649141598</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>551.8181649141598</v>
+        <v>643.7011644960776</v>
       </c>
       <c r="V10" t="n">
-        <v>551.8181649141598</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="W10" t="n">
-        <v>551.8181649141598</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X10" t="n">
-        <v>551.8181649141598</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>551.8181649141598</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5036,16 +5036,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5057,16 +5057,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5075,7 +5075,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>644.7495974624901</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>1258.646667219379</v>
+        <v>1102.530591931886</v>
       </c>
       <c r="M12" t="n">
-        <v>2027.01481361184</v>
+        <v>1422.865911461588</v>
       </c>
       <c r="N12" t="n">
-        <v>2371.535469249458</v>
+        <v>1767.386567099205</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>820.5263570570734</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="14">
@@ -5273,19 +5273,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5297,31 +5297,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>508.1073603047984</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1429.324563341649</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1773.845218979267</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>843.7395088768801</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>674.8033259489732</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>524.6866865366375</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>843.7395088768801</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>843.7395088768801</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>843.7395088768801</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,34 +5531,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>3158.47475800178</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="M18" t="n">
-        <v>3465.794891281741</v>
+        <v>1442.796708849622</v>
       </c>
       <c r="N18" t="n">
-        <v>3795.657518945774</v>
+        <v>1866.280545228376</v>
       </c>
       <c r="O18" t="n">
-        <v>4075.197584164471</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P18" t="n">
-        <v>4595.498205900218</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3459.155393916676</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C19" t="n">
-        <v>3459.155393916676</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D19" t="n">
-        <v>3459.155393916676</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>3459.155393916676</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>4549.85945949167</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>4326.074044281177</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>4036.945405494735</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V19" t="n">
-        <v>3782.260917288848</v>
+        <v>754.3167881386869</v>
       </c>
       <c r="W19" t="n">
-        <v>3492.843747251887</v>
+        <v>464.8996181017263</v>
       </c>
       <c r="X19" t="n">
-        <v>3459.155393916676</v>
+        <v>464.8996181017263</v>
       </c>
       <c r="Y19" t="n">
-        <v>3459.155393916676</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5777,22 +5777,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5829,22 +5829,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>772.3202985692585</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M21" t="n">
-        <v>1092.65561809896</v>
+        <v>1229.547424576682</v>
       </c>
       <c r="N21" t="n">
-        <v>1897.067196363111</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O21" t="n">
-        <v>2145.820610447073</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916676</v>
+        <v>545.4651278373165</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916676</v>
+        <v>376.5289449094096</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916676</v>
+        <v>376.5289449094096</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916676</v>
+        <v>376.5289449094096</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916676</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4326.074044281177</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>4036.945405494735</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V22" t="n">
-        <v>3782.260917288848</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W22" t="n">
-        <v>3492.843747251887</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="X22" t="n">
-        <v>3459.155393916676</v>
+        <v>727.1135926675562</v>
       </c>
       <c r="Y22" t="n">
-        <v>3459.155393916676</v>
+        <v>727.1135926675562</v>
       </c>
     </row>
     <row r="23">
@@ -5966,37 +5966,37 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6008,28 +6008,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1157.264000062947</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1501.784655700565</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916675</v>
+        <v>3922.133756677159</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916675</v>
+        <v>3922.133756677159</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916675</v>
+        <v>3922.133756677159</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>3774.220663094765</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431055</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436452</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042135</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576117</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.859459491669</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T25" t="n">
-        <v>4326.074044281175</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U25" t="n">
-        <v>4036.945405494733</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="V25" t="n">
-        <v>3782.260917288846</v>
+        <v>4439.540477612137</v>
       </c>
       <c r="W25" t="n">
-        <v>3492.843747251885</v>
+        <v>4150.123307575176</v>
       </c>
       <c r="X25" t="n">
-        <v>3459.155393916675</v>
+        <v>3922.133756677159</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916675</v>
+        <v>3922.133756677159</v>
       </c>
     </row>
     <row r="26">
@@ -6206,22 +6206,22 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
@@ -6245,28 +6245,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M27" t="n">
-        <v>1778.261399527878</v>
+        <v>1672.759814717971</v>
       </c>
       <c r="N27" t="n">
-        <v>2122.782055165496</v>
+        <v>2418.551024593929</v>
       </c>
       <c r="O27" t="n">
-        <v>2371.535469249458</v>
+        <v>2418.551024593929</v>
       </c>
       <c r="P27" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3628.091576844583</v>
+        <v>4075.516172206884</v>
       </c>
       <c r="C28" t="n">
-        <v>3459.155393916676</v>
+        <v>3906.579989278977</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916676</v>
+        <v>3756.463349866642</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916676</v>
+        <v>3756.463349866642</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916676</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916676</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014292</v>
+        <v>4637.069157803797</v>
       </c>
       <c r="U28" t="n">
-        <v>4802.623829959217</v>
+        <v>4347.940519017355</v>
       </c>
       <c r="V28" t="n">
-        <v>4547.93934175333</v>
+        <v>4347.940519017355</v>
       </c>
       <c r="W28" t="n">
-        <v>4258.522171716369</v>
+        <v>4347.940519017355</v>
       </c>
       <c r="X28" t="n">
-        <v>4030.532620818352</v>
+        <v>4347.940519017355</v>
       </c>
       <c r="Y28" t="n">
-        <v>3809.740041674822</v>
+        <v>4127.147939873825</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6458,13 +6458,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,34 +6479,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>246.2867756623457</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>860.1838454192343</v>
       </c>
       <c r="M30" t="n">
-        <v>1595.645765494011</v>
+        <v>1167.503978699196</v>
       </c>
       <c r="N30" t="n">
-        <v>1925.508393158044</v>
+        <v>1971.915556963346</v>
       </c>
       <c r="O30" t="n">
-        <v>1925.508393158044</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P30" t="n">
-        <v>2445.809014893791</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1141.200876391121</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C31" t="n">
-        <v>972.2646934632137</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D31" t="n">
-        <v>822.1480540508779</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6643,28 +6643,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W31" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X31" t="n">
-        <v>1498.916270557902</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y31" t="n">
-        <v>1322.84934122136</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6674,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6719,10 +6719,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>508.1073603047985</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>508.1073603047985</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="M33" t="n">
-        <v>1276.47550669726</v>
+        <v>1317.966583862617</v>
       </c>
       <c r="N33" t="n">
-        <v>1606.338134361293</v>
+        <v>2079.710673976462</v>
       </c>
       <c r="O33" t="n">
-        <v>2275.801895663952</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>533.6251570374463</v>
+        <v>3907.801489902814</v>
       </c>
       <c r="C34" t="n">
-        <v>533.6251570374463</v>
+        <v>3738.865306974907</v>
       </c>
       <c r="D34" t="n">
-        <v>533.6251570374463</v>
+        <v>3738.865306974907</v>
       </c>
       <c r="E34" t="n">
-        <v>533.6251570374463</v>
+        <v>3738.865306974907</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>3738.865306974907</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="T34" t="n">
-        <v>1164.055751909234</v>
+        <v>4637.069157803797</v>
       </c>
       <c r="U34" t="n">
-        <v>1164.055751909234</v>
+        <v>4347.940519017355</v>
       </c>
       <c r="V34" t="n">
-        <v>1164.055751909234</v>
+        <v>4347.940519017355</v>
       </c>
       <c r="W34" t="n">
-        <v>1164.055751909234</v>
+        <v>4058.523348980394</v>
       </c>
       <c r="X34" t="n">
-        <v>936.0662010112162</v>
+        <v>4058.523348980394</v>
       </c>
       <c r="Y34" t="n">
-        <v>715.2736218676861</v>
+        <v>4058.523348980394</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6953,13 +6953,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K36" t="n">
-        <v>508.1073603047985</v>
+        <v>246.2867756623457</v>
       </c>
       <c r="L36" t="n">
-        <v>1122.004430061687</v>
+        <v>493.0519035688097</v>
       </c>
       <c r="M36" t="n">
-        <v>1433.809122337732</v>
+        <v>1261.420049961271</v>
       </c>
       <c r="N36" t="n">
-        <v>1433.809122337732</v>
+        <v>1591.282677625304</v>
       </c>
       <c r="O36" t="n">
-        <v>2103.272883640391</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>985.400123145958</v>
+        <v>675.007103038344</v>
       </c>
       <c r="C37" t="n">
-        <v>816.4639402180511</v>
+        <v>506.0709201104371</v>
       </c>
       <c r="D37" t="n">
-        <v>666.3473008057153</v>
+        <v>506.0709201104371</v>
       </c>
       <c r="E37" t="n">
-        <v>518.4342072233222</v>
+        <v>506.0709201104371</v>
       </c>
       <c r="F37" t="n">
-        <v>371.5442597254118</v>
+        <v>506.0709201104371</v>
       </c>
       <c r="G37" t="n">
-        <v>203.3689380452325</v>
+        <v>337.8955984302577</v>
       </c>
       <c r="H37" t="n">
-        <v>203.3689380452325</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7120,25 +7120,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U37" t="n">
-        <v>1387.841167119728</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V37" t="n">
-        <v>1387.841167119728</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W37" t="n">
-        <v>1387.841167119728</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X37" t="n">
-        <v>1387.841167119728</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y37" t="n">
-        <v>1167.048587976198</v>
+        <v>675.007103038344</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7254,25 +7254,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>450.5935627481883</v>
       </c>
       <c r="L39" t="n">
-        <v>674.4285624571609</v>
+        <v>697.3586906546524</v>
       </c>
       <c r="M39" t="n">
-        <v>994.7638819868627</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="N39" t="n">
-        <v>1799.175460251013</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O39" t="n">
-        <v>2418.551024593929</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>778.2831413070229</v>
+        <v>472.197537898503</v>
       </c>
       <c r="C40" t="n">
-        <v>609.346958379116</v>
+        <v>472.197537898503</v>
       </c>
       <c r="D40" t="n">
-        <v>459.2303189667803</v>
+        <v>322.0808984861673</v>
       </c>
       <c r="E40" t="n">
-        <v>311.3172253843871</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F40" t="n">
-        <v>311.3172253843871</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7357,25 +7357,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1187.92115703528</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U40" t="n">
-        <v>1187.92115703528</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V40" t="n">
-        <v>1187.92115703528</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W40" t="n">
-        <v>1187.92115703528</v>
+        <v>874.6385818722729</v>
       </c>
       <c r="X40" t="n">
-        <v>959.9316061372626</v>
+        <v>874.6385818722729</v>
       </c>
       <c r="Y40" t="n">
-        <v>959.9316061372626</v>
+        <v>653.8460027287427</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7491,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L42" t="n">
-        <v>1122.004430061687</v>
+        <v>714.2166166306681</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1034.55193616037</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1364.414563824403</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4169.284890254081</v>
+        <v>581.3058073983079</v>
       </c>
       <c r="C43" t="n">
-        <v>4000.348707326174</v>
+        <v>581.3058073983079</v>
       </c>
       <c r="D43" t="n">
-        <v>3850.232067913838</v>
+        <v>431.1891679859722</v>
       </c>
       <c r="E43" t="n">
-        <v>3774.220663094764</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F43" t="n">
-        <v>3627.330715596854</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>4571.72593422785</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V43" t="n">
-        <v>4571.72593422785</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W43" t="n">
-        <v>4571.72593422785</v>
+        <v>809.2953582963253</v>
       </c>
       <c r="X43" t="n">
-        <v>4571.72593422785</v>
+        <v>581.3058073983079</v>
       </c>
       <c r="Y43" t="n">
-        <v>4350.93335508432</v>
+        <v>581.3058073983079</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7728,19 +7728,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M45" t="n">
-        <v>1998.601460396392</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N45" t="n">
-        <v>2328.464088060424</v>
+        <v>1476.356849144414</v>
       </c>
       <c r="O45" t="n">
-        <v>2328.464088060424</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>549.3807322743211</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C46" t="n">
-        <v>380.4445493464142</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D46" t="n">
-        <v>380.4445493464142</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E46" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7828,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V46" t="n">
-        <v>1020.446367141521</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W46" t="n">
-        <v>731.0291971045608</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="X46" t="n">
-        <v>731.0291971045608</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="Y46" t="n">
-        <v>731.0291971045608</v>
+        <v>488.6586744753688</v>
       </c>
     </row>
   </sheetData>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8772,7 +8772,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>183.1685874426879</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8781,13 +8781,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9249,10 +9249,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,7 +9489,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9729,16 +9729,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>237.1871315797027</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599059</v>
+        <v>212.314990659905</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9963,19 +9963,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>420.1298810221458</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,10 +10200,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>194.4475131983992</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10437,19 +10437,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,28 +10665,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>4.529857571801244</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>277.7756238414872</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10911,16 +10911,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11145,16 +11145,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>85.57005156953142</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11309,7 +11309,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11376,28 +11376,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>275.3130941973291</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>14.74113413690333</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>17.57393991144846</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23710,16 +23710,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>132.7334215895642</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>192.3581855871777</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>128.2353869401069</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>192.3581855871777</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24212,7 +24212,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24370,13 +24370,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>121.2740412742716</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>128.7165301916662</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24652,19 +24652,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>228.5889167740527</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -24901,10 +24901,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>99.6172146242198</v>
       </c>
       <c r="Y31" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>30.61733969513253</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,13 +25084,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>139.2037053967281</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -25129,19 +25129,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>21.06135193153601</v>
       </c>
       <c r="I37" t="n">
-        <v>5.328917345174858</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,13 +25360,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>72.73262205848272</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>64.9536813427893</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -25609,13 +25609,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>71.18267187568595</v>
+        <v>110.1364832766071</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25846,13 +25846,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,19 +26020,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>87.35424866178674</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>121.8790728265053</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26041,7 +26041,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,13 +26083,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967306</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967308</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>899366.8373967308</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>899366.8373967308</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>899366.8373967308</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>899366.8373967308</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>899366.8373967306</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185696</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185698</v>
@@ -26320,28 +26320,28 @@
         <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852506</v>
       </c>
       <c r="F2" t="n">
+        <v>469234.8716852506</v>
+      </c>
+      <c r="G2" t="n">
         <v>469234.8716852505</v>
       </c>
-      <c r="G2" t="n">
-        <v>469234.8716852503</v>
-      </c>
       <c r="H2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="I2" t="n">
         <v>469234.8716852505</v>
       </c>
       <c r="J2" t="n">
+        <v>469234.8716852507</v>
+      </c>
+      <c r="K2" t="n">
         <v>469234.8716852503</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>469234.8716852504</v>
-      </c>
-      <c r="L2" t="n">
-        <v>469234.8716852502</v>
       </c>
       <c r="M2" t="n">
         <v>469234.8716852504</v>
@@ -26350,10 +26350,10 @@
         <v>469234.8716852504</v>
       </c>
       <c r="O2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852506</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,28 +26424,28 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="F4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758694</v>
@@ -26457,7 +26457,7 @@
         <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-319261.0345400034</v>
+        <v>-319261.0345400035</v>
       </c>
       <c r="C6" t="n">
+        <v>270706.8446745414</v>
+      </c>
+      <c r="D6" t="n">
         <v>270706.8446745413</v>
       </c>
-      <c r="D6" t="n">
-        <v>270706.8446745414</v>
-      </c>
       <c r="E6" t="n">
-        <v>-148700.2844309382</v>
+        <v>-148700.2844309378</v>
       </c>
       <c r="F6" t="n">
+        <v>376459.7520459581</v>
+      </c>
+      <c r="G6" t="n">
         <v>376459.752045958</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
+        <v>376459.7520459581</v>
+      </c>
+      <c r="I6" t="n">
+        <v>376459.752045958</v>
+      </c>
+      <c r="J6" t="n">
+        <v>200036.5328533653</v>
+      </c>
+      <c r="K6" t="n">
         <v>376459.7520459578</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
         <v>376459.7520459579</v>
       </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
+        <v>241658.7368121209</v>
+      </c>
+      <c r="N6" t="n">
+        <v>376459.7520459579</v>
+      </c>
+      <c r="O6" t="n">
         <v>376459.7520459581</v>
       </c>
-      <c r="J6" t="n">
-        <v>200036.5328533648</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="P6" t="n">
         <v>376459.752045958</v>
-      </c>
-      <c r="L6" t="n">
-        <v>376459.7520459577</v>
-      </c>
-      <c r="M6" t="n">
-        <v>241658.7368121208</v>
-      </c>
-      <c r="N6" t="n">
-        <v>376459.752045958</v>
-      </c>
-      <c r="O6" t="n">
-        <v>376459.7520459578</v>
-      </c>
-      <c r="P6" t="n">
-        <v>376459.7520459578</v>
       </c>
     </row>
   </sheetData>
@@ -26741,19 +26741,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>37.24410088293934</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>106.2439634223259</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>254.0914125250537</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>182.103453788898</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>205.8235470650005</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>253.3709708201185</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>31.47894153322612</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>85.14112624278616</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>212.3423022339469</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>93.02544512586024</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>50.48739435873236</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>202.6983327287247</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31373,7 +31373,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>86.43447689993508</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,34 +31832,34 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>258.4381250424288</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31996,40 +31996,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,43 +32069,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>396.5537155454428</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>352.4614506931608</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32169,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32181,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32233,40 +32233,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,10 +32306,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32318,22 +32318,22 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>79.76078862741025</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>197.9412208088336</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32406,7 +32406,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,10 +32418,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32470,40 +32470,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,22 +32543,22 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>34.59579029910191</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>4.869128001485365</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813461</v>
@@ -32567,7 +32567,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32643,7 +32643,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,10 +32655,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32789,16 +32789,16 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>396.5537155454428</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32810,7 +32810,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677464</v>
@@ -33029,25 +33029,25 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>171.3135836203299</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33275,13 +33275,13 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>98.7271917896141</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33509,19 +33509,19 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>421.4378126022492</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>166.796093029127</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
@@ -33746,19 +33746,19 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -33974,28 +33974,28 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>62.32091826030577</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>374.3658083423769</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,19 +34208,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>264.3220800446422</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34229,16 +34229,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,28 +34454,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>393.8793016693335</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>385.0619230806484</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>432.4262923987121</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>603.7275255254459</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>427.7614508876305</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36048,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>266.8817558226869</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>328.440157829467</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36285,7 +36285,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>519.5508338208108</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>88.0130327850741</v>
@@ -36613,7 +36613,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R26" t="n">
         <v>59.82538970349808</v>
@@ -36677,22 +36677,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>494.8846134483115</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>753.3244544201586</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
@@ -36920,16 +36920,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>51.85126875395473</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>168.8227054394417</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>10.73738595686864</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37157,16 +37157,16 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>769.4384748624694</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>351.2844542547339</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>314.9542346222674</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>560.1393260825953</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>188.9447162985254</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>625.631883174662</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,19 +37780,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>496.6080455682272</v>
       </c>
       <c r="M42" t="n">
-        <v>395.9944286199977</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37950,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,19 +38017,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>717.4503314973151</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>143.9713821139957</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1752473.797681388</v>
+        <v>1828003.467346193</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>975362.0584466169</v>
+        <v>995593.4795722774</v>
       </c>
     </row>
     <row r="8">
@@ -662,19 +664,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>312.598625659557</v>
       </c>
       <c r="F2" t="n">
-        <v>300.6320823193856</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -710,10 +712,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>53.80100608808129</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>32.19046171692406</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>63.03953852655687</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>132.8669678359351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>83.60147206155825</v>
       </c>
       <c r="U7" t="n">
-        <v>201.1407479991916</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1136,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>276.7056555526088</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>241.7627700121625</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>127.007578794843</v>
       </c>
       <c r="U10" t="n">
-        <v>83.58354151325305</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>271.7818641996877</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.8600227351207</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>64.3419076393841</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2053,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>119.4042217342638</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>88.78603353439098</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>122.9684277897099</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>17.18566108282436</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -2293,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>130.8636020495564</v>
+        <v>50.75136046586785</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>51.1154499902711</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>215.0546805228902</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,22 +3003,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>144.4797853959758</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>126.0924407648174</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>149.2146404868048</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>66.14085215535403</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>60.54139430664144</v>
       </c>
       <c r="H37" t="n">
-        <v>127.8524764360001</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -3481,7 +3483,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>62.62149883284244</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>73.70134058808645</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3721,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>36.29747936996207</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3958,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>164.981721572249</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>92.47773152015056</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4192,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>50.03633552408541</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1606.946621408918</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="C2" t="n">
-        <v>1237.984104468507</v>
+        <v>1710.380556858352</v>
       </c>
       <c r="D2" t="n">
-        <v>1237.984104468507</v>
+        <v>1352.114858251602</v>
       </c>
       <c r="E2" t="n">
-        <v>852.1958518702625</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,22 +4409,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247.5125998356232</v>
+        <v>2077.307539226174</v>
       </c>
       <c r="C4" t="n">
-        <v>247.5125998356232</v>
+        <v>2077.307539226174</v>
       </c>
       <c r="D4" t="n">
-        <v>247.5125998356232</v>
+        <v>2077.307539226174</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>2077.307539226174</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>2077.307539226174</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>2077.307539226174</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="U4" t="n">
-        <v>468.3051789791533</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="V4" t="n">
-        <v>468.3051789791533</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="W4" t="n">
-        <v>468.3051789791533</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="X4" t="n">
-        <v>468.3051789791533</v>
+        <v>2077.307539226174</v>
       </c>
       <c r="Y4" t="n">
-        <v>247.5125998356232</v>
+        <v>2077.307539226174</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.0401021781393</v>
+        <v>1332.357248852006</v>
       </c>
       <c r="C5" t="n">
-        <v>433.0775852377275</v>
+        <v>1332.357248852006</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>1332.357248852006</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>946.5689962537617</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>535.5830914641542</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>117.6192833623411</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>117.6192833623411</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982757</v>
+        <v>1718.957088916128</v>
       </c>
       <c r="Y5" t="n">
-        <v>802.0401021781393</v>
+        <v>1718.957088916128</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T7" t="n">
-        <v>257.1154545468206</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>281.2479710834698</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>913.7382812066351</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C8" t="n">
-        <v>913.7382812066351</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D8" t="n">
-        <v>555.4725825998845</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4799,55 +4801,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>1936.146930626913</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W8" t="n">
-        <v>1583.378275356799</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="X8" t="n">
-        <v>1303.877613182447</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="Y8" t="n">
-        <v>913.7382812066351</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,31 +4895,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4960,52 +4962,52 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4215814289018</v>
       </c>
       <c r="U10" t="n">
-        <v>643.7011644960776</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="V10" t="n">
-        <v>389.0166762901907</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>281.2479710834698</v>
       </c>
     </row>
     <row r="11">
@@ -5036,16 +5038,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5057,16 +5059,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5075,7 +5077,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.530591931886</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M12" t="n">
-        <v>1422.865911461588</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.386567099205</v>
+        <v>1731.747761568914</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1980.501175652877</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028583</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028583</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570734</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028583</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,19 +5263,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
@@ -5294,34 +5296,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028583</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047984</v>
+        <v>264.0657286834809</v>
       </c>
       <c r="L15" t="n">
-        <v>1122.004430061687</v>
+        <v>494.02883455183</v>
       </c>
       <c r="M15" t="n">
-        <v>1429.324563341649</v>
+        <v>814.3641540815318</v>
       </c>
       <c r="N15" t="n">
-        <v>1773.845218979267</v>
+        <v>1618.775732345683</v>
       </c>
       <c r="O15" t="n">
-        <v>2371.535469249458</v>
+        <v>2288.239493648342</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2470.882971261693</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>843.7395088768801</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>674.8033259489732</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>524.6866865366375</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123425</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123425</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5470,16 +5472,16 @@
         <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>1133.156678913841</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W16" t="n">
-        <v>843.7395088768801</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="X16" t="n">
-        <v>843.7395088768801</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="Y16" t="n">
-        <v>843.7395088768801</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5549,16 +5551,16 @@
         <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,13 +5582,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028583</v>
@@ -5598,16 +5600,16 @@
         <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>674.4285624571608</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M18" t="n">
-        <v>1442.796708849622</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.280545228376</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>2145.820610447073</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>244.1070389581962</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C19" t="n">
         <v>244.1070389581962</v>
@@ -5674,19 +5676,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5701,22 +5703,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>874.9271131227918</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V19" t="n">
-        <v>754.3167881386869</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W19" t="n">
-        <v>464.8996181017263</v>
+        <v>1043.47381675789</v>
       </c>
       <c r="X19" t="n">
-        <v>464.8996181017263</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="Y19" t="n">
-        <v>244.1070389581962</v>
+        <v>594.6916867163428</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5731,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5777,22 +5779,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5829,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L21" t="n">
-        <v>904.39166832551</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M21" t="n">
-        <v>1229.547424576682</v>
+        <v>1636.518449498637</v>
       </c>
       <c r="N21" t="n">
-        <v>1559.410052240715</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>545.4651278373165</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C22" t="n">
-        <v>376.5289449094096</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D22" t="n">
-        <v>376.5289449094096</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E22" t="n">
-        <v>376.5289449094096</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F22" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
         <v>359.1696912903951</v>
@@ -5911,19 +5913,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5941,19 +5943,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.78763177146</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655735</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W22" t="n">
-        <v>955.1031435655735</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X22" t="n">
-        <v>727.1135926675562</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y22" t="n">
-        <v>727.1135926675562</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5971,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,7 +6007,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6066,22 +6068,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>388.8958536704856</v>
+        <v>232.333204354932</v>
       </c>
       <c r="L24" t="n">
-        <v>388.8958536704856</v>
+        <v>479.098332261396</v>
       </c>
       <c r="M24" t="n">
-        <v>1157.264000062947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1501.784655700565</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3922.133756677159</v>
+        <v>527.8045051785809</v>
       </c>
       <c r="C25" t="n">
-        <v>3922.133756677159</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D25" t="n">
-        <v>3922.133756677159</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E25" t="n">
-        <v>3774.220663094765</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>3627.330715596855</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>4571.72593422785</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>4439.540477612137</v>
+        <v>1447.652270087329</v>
       </c>
       <c r="W25" t="n">
-        <v>4150.123307575176</v>
+        <v>1158.235100050368</v>
       </c>
       <c r="X25" t="n">
-        <v>3922.133756677159</v>
+        <v>930.2455491523508</v>
       </c>
       <c r="Y25" t="n">
-        <v>3922.133756677159</v>
+        <v>709.4529700088207</v>
       </c>
     </row>
     <row r="26">
@@ -6203,10 +6205,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,19 +6217,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,19 +6244,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6291,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>592.8217113586352</v>
       </c>
       <c r="L27" t="n">
-        <v>904.39166832551</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M27" t="n">
-        <v>1672.759814717971</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>2418.551024593929</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>2418.551024593929</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4075.516172206884</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C28" t="n">
-        <v>3906.579989278977</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D28" t="n">
-        <v>3756.463349866642</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E28" t="n">
-        <v>3756.463349866642</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>3609.573402368731</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4637.069157803797</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>4347.940519017355</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>4347.940519017355</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>4347.940519017355</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X28" t="n">
-        <v>4347.940519017355</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y28" t="n">
-        <v>4127.147939873825</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6482,28 +6484,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>246.2867756623457</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>860.1838454192343</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M30" t="n">
-        <v>1167.503978699196</v>
+        <v>1672.759814717971</v>
       </c>
       <c r="N30" t="n">
-        <v>1971.915556963346</v>
+        <v>2017.280470355589</v>
       </c>
       <c r="O30" t="n">
-        <v>2023.248313029762</v>
+        <v>2266.033884439551</v>
       </c>
       <c r="P30" t="n">
-        <v>2543.548934765509</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>434.3285960683721</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C31" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6649,22 +6651,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>1041.981979867628</v>
       </c>
       <c r="U31" t="n">
-        <v>964.1357418247858</v>
+        <v>752.8533410811858</v>
       </c>
       <c r="V31" t="n">
-        <v>964.1357418247858</v>
+        <v>498.168852875299</v>
       </c>
       <c r="W31" t="n">
-        <v>964.1357418247858</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="X31" t="n">
-        <v>836.769640042142</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y31" t="n">
-        <v>615.9770608986119</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="32">
@@ -6698,16 +6700,16 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6725,7 +6727,7 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6777,25 +6779,25 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>530.005181897948</v>
       </c>
       <c r="L33" t="n">
-        <v>549.5984374701561</v>
+        <v>759.9682877662972</v>
       </c>
       <c r="M33" t="n">
-        <v>1317.966583862617</v>
+        <v>1080.303607295999</v>
       </c>
       <c r="N33" t="n">
-        <v>2079.710673976462</v>
+        <v>1884.71518556015</v>
       </c>
       <c r="O33" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3907.801489902814</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C34" t="n">
-        <v>3738.865306974907</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D34" t="n">
-        <v>3738.865306974907</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E34" t="n">
-        <v>3738.865306974907</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F34" t="n">
-        <v>3738.865306974907</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>3570.689985294727</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4637.069157803797</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>4347.940519017355</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>4347.940519017355</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W34" t="n">
-        <v>4058.523348980394</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X34" t="n">
-        <v>4058.523348980394</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="Y34" t="n">
-        <v>4058.523348980394</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="35">
@@ -6935,16 +6937,16 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6962,19 +6964,19 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7014,22 +7016,22 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>246.2867756623457</v>
+        <v>664.5909712050459</v>
       </c>
       <c r="L36" t="n">
-        <v>493.0519035688097</v>
+        <v>894.5540770733951</v>
       </c>
       <c r="M36" t="n">
-        <v>1261.420049961271</v>
+        <v>1214.889396603097</v>
       </c>
       <c r="N36" t="n">
-        <v>1591.282677625304</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O36" t="n">
-        <v>2145.820610447073</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>675.007103038344</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="C37" t="n">
-        <v>506.0709201104371</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="D37" t="n">
-        <v>506.0709201104371</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="E37" t="n">
-        <v>506.0709201104371</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="F37" t="n">
-        <v>506.0709201104371</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="G37" t="n">
-        <v>337.8955984302577</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
         <v>208.7516828383384</v>
@@ -7129,16 +7131,16 @@
         <v>675.007103038344</v>
       </c>
       <c r="V37" t="n">
-        <v>675.007103038344</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W37" t="n">
-        <v>675.007103038344</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X37" t="n">
-        <v>675.007103038344</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="Y37" t="n">
-        <v>675.007103038344</v>
+        <v>420.3226148324571</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7156,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7190,7 +7192,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7251,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>450.5935627481883</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>697.3586906546524</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1465.726837047114</v>
+        <v>854.8783002638691</v>
       </c>
       <c r="N39" t="n">
-        <v>1465.726837047114</v>
+        <v>1659.28987852802</v>
       </c>
       <c r="O39" t="n">
-        <v>2135.190598349773</v>
+        <v>2328.753639830679</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>472.197537898503</v>
+        <v>991.0842369787848</v>
       </c>
       <c r="C40" t="n">
-        <v>472.197537898503</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="D40" t="n">
-        <v>322.0808984861673</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E40" t="n">
-        <v>247.6350999123426</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F40" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V40" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W40" t="n">
-        <v>874.6385818722729</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X40" t="n">
-        <v>874.6385818722729</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="Y40" t="n">
-        <v>653.8460027287427</v>
+        <v>1054.338276203878</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7488,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>222.5746515181232</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>714.2166166306681</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>1034.55193616037</v>
+        <v>1897.067196363111</v>
       </c>
       <c r="N42" t="n">
-        <v>1364.414563824403</v>
+        <v>1897.067196363111</v>
       </c>
       <c r="O42" t="n">
-        <v>2033.878325127062</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P42" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>581.3058073983079</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C43" t="n">
-        <v>581.3058073983079</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D43" t="n">
-        <v>431.1891679859722</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E43" t="n">
         <v>394.5250474102529</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1098.712528333286</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>1098.712528333286</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W43" t="n">
-        <v>809.2953582963253</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X43" t="n">
-        <v>581.3058073983079</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="Y43" t="n">
-        <v>581.3058073983079</v>
+        <v>1043.139428163128</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,25 +7633,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7664,7 +7666,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7728,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1026.505047571597</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="M45" t="n">
-        <v>1333.825180851558</v>
+        <v>1442.796708849622</v>
       </c>
       <c r="N45" t="n">
-        <v>1476.356849144414</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="O45" t="n">
-        <v>2145.820610447073</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>395.2468244550147</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C46" t="n">
-        <v>395.2468244550147</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7831,25 +7833,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U46" t="n">
-        <v>964.1357418247858</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V46" t="n">
-        <v>709.4512536188989</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W46" t="n">
-        <v>709.4512536188989</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X46" t="n">
-        <v>709.4512536188989</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y46" t="n">
-        <v>488.6586744753688</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8772,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>183.1685874426879</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9012,7 +9014,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9027,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,25 +9248,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.4091825776758</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9489,16 +9491,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9729,16 +9731,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>237.1871315797027</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9893,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.314990659905</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9954,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>182.0340742867951</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>420.1298810221458</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,19 +10193,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>194.4475131983992</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10443,7 +10445,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10662,22 +10664,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>277.7756238414872</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,16 +10913,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>2.691396268713845</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11072,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11160,7 +11162,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11309,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11376,19 +11378,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>275.3130941973291</v>
+        <v>35.8627573848708</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>14.74113413690333</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>17.57393991144846</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,10 +23712,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>222.1810906972069</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23750,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23941,19 +23943,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>132.7334215895642</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>197.7369648022</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>44.27839330891796</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>128.2353869401069</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24181,19 +24183,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,10 +24420,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>121.2740412742716</v>
+        <v>201.3862828579601</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>128.7165301916662</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24652,10 +24654,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>10.654974866147</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>77.06777566241342</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>99.6172146242198</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>30.61733969513253</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,22 +25128,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>159.5688032336831</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25217,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>105.9521741567361</v>
       </c>
       <c r="H37" t="n">
-        <v>21.06135193153601</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>117.2104813490949</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>72.73262205848272</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>110.1364832766071</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25846,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>53.60293177984579</v>
       </c>
     </row>
     <row r="44">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.35424866178674</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,13 +26082,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>175.6733198649517</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>899366.8373967306</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967308</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>899366.8373967308</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967306</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967308</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185696</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852506</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="F2" t="n">
-        <v>469234.8716852506</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="G2" t="n">
         <v>469234.8716852505</v>
       </c>
       <c r="H2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="I2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="J2" t="n">
         <v>469234.8716852505</v>
       </c>
-      <c r="I2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="J2" t="n">
-        <v>469234.8716852507</v>
-      </c>
       <c r="K2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="L2" t="n">
         <v>469234.8716852504</v>
@@ -26347,7 +26349,7 @@
         <v>469234.8716852504</v>
       </c>
       <c r="N2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="O2" t="n">
         <v>469234.8716852506</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.1391806191</v>
+      </c>
+      <c r="C4" t="n">
         <v>139059.139180619</v>
       </c>
-      <c r="C4" t="n">
-        <v>139059.1391806191</v>
-      </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758694</v>
@@ -26473,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871661</v>
@@ -26491,10 +26493,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871661</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-319261.0345400035</v>
+        <v>-319261.0345400033</v>
       </c>
       <c r="C6" t="n">
+        <v>270706.8446745413</v>
+      </c>
+      <c r="D6" t="n">
         <v>270706.8446745414</v>
       </c>
-      <c r="D6" t="n">
-        <v>270706.8446745413</v>
-      </c>
       <c r="E6" t="n">
-        <v>-148700.2844309378</v>
+        <v>-148700.284430938</v>
       </c>
       <c r="F6" t="n">
-        <v>376459.7520459581</v>
+        <v>376459.7520459578</v>
       </c>
       <c r="G6" t="n">
         <v>376459.752045958</v>
       </c>
       <c r="H6" t="n">
-        <v>376459.7520459581</v>
+        <v>376459.752045958</v>
       </c>
       <c r="I6" t="n">
+        <v>376459.7520459578</v>
+      </c>
+      <c r="J6" t="n">
+        <v>200036.532853365</v>
+      </c>
+      <c r="K6" t="n">
         <v>376459.752045958</v>
-      </c>
-      <c r="J6" t="n">
-        <v>200036.5328533653</v>
-      </c>
-      <c r="K6" t="n">
-        <v>376459.7520459578</v>
       </c>
       <c r="L6" t="n">
         <v>376459.7520459579</v>
       </c>
       <c r="M6" t="n">
-        <v>241658.7368121209</v>
+        <v>241658.7368121208</v>
       </c>
       <c r="N6" t="n">
-        <v>376459.7520459579</v>
+        <v>376459.752045958</v>
       </c>
       <c r="O6" t="n">
         <v>376459.7520459581</v>
       </c>
       <c r="P6" t="n">
-        <v>376459.752045958</v>
+        <v>376459.7520459579</v>
       </c>
     </row>
   </sheetData>
@@ -26738,22 +26740,22 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>69.33174441270478</v>
       </c>
       <c r="F2" t="n">
-        <v>106.2439634223259</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27543,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>102.3698827537139</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>254.0914125250537</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>88.89177771830438</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>253.3709708201185</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>141.433633396526</v>
       </c>
       <c r="U7" t="n">
-        <v>85.14112624278616</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27856,16 +27858,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>93.02544512586024</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>144.475168643891</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28053,25 +28055,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>98.0275266632413</v>
       </c>
       <c r="U10" t="n">
-        <v>202.6983327287247</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31130,7 +31132,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>11.76595806653236</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31145,7 +31147,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>111.7343803072865</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31379,25 +31381,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>149.8971812516336</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,25 +31831,25 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -31856,7 +31858,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>166.9893280749461</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31865,10 +31867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,10 +31931,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>352.4614506931608</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>84.13734909203626</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32166,10 +32168,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32233,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,10 +32308,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32318,31 +32320,31 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>79.76078862741025</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32406,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32470,40 +32472,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,34 +32545,34 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>4.869128001485365</v>
+        <v>316.5557641833944</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
@@ -32579,7 +32581,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32643,7 +32645,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,10 +32657,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32789,16 +32791,16 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>232.4121821352565</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32810,7 +32812,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677464</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -33029,7 +33031,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724845</v>
@@ -33038,16 +33040,16 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
@@ -33260,31 +33262,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>106.5672573837441</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677464</v>
@@ -33500,25 +33502,25 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>142.5346749772348</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>421.4378126022492</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33734,25 +33736,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>278.4799167015761</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33974,28 +33976,28 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>62.32091826030577</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
@@ -34208,31 +34210,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>264.3220800446422</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>291.3194390094541</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677464</v>
@@ -34451,19 +34453,19 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839187</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,13 +35491,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>432.4262923987121</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
@@ -35504,10 +35506,10 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>351.477689300553</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>603.7275255254459</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>154.2328627418638</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,19 +35968,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>537.6668875337001</v>
       </c>
       <c r="M18" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>427.7614508876305</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>328.440157829467</v>
+        <v>640.126794011376</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36285,7 +36287,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>94.57074316089751</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>519.5508338208108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>88.0130327850741</v>
@@ -36610,10 +36612,10 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
         <v>59.82538970349808</v>
@@ -36674,25 +36676,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>332.6095128747343</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>753.3244544201586</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>51.85126875395473</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>291.055618609351</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>269.1584730154544</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>769.4384748624694</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>405.1037147397957</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>560.1393260825953</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9447162985254</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>209.7848112002385</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37792,7 +37794,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>496.6080455682272</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>614.8904688374357</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38029,7 +38031,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38096,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>143.9713821139957</v>
+        <v>369.0573307828836</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1828003.467346193</v>
+        <v>1820986.452454482</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>995593.4795722774</v>
+        <v>603160.6374503499</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>312.598625659557</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>17.55575211235063</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>88.83490402252897</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>53.80100608808129</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>158.2605707690898</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>63.03953852655687</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>134.6751203255737</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>83.60147206155825</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>126.6305324976341</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.7627700121625</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1302,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>134.6751203255735</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>127.007578794843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883384993</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1548,7 +1548,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>233.3876732539816</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>64.3419076393841</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>46.90175579878716</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>158.0662359656497</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>88.78603353439098</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274077</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>122.9684277897099</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2259,7 +2259,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>124.7210848704284</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>157.2425576766696</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>50.75136046586785</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2608,7 +2608,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>215.0546805228902</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>45.21952718910648</v>
       </c>
     </row>
     <row r="29">
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>2.277719722116939</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>144.4797853959758</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3082,10 +3082,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3204,10 +3204,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>29.36686421043293</v>
       </c>
       <c r="X34" t="n">
-        <v>66.14085215535403</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>60.54139430664144</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>92.67605843035824</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>62.62149883284244</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3678,10 +3678,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>88.44827742123786</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>58.19095390327369</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>164.981721572249</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>50.03633552408541</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2079.343073798764</v>
+        <v>819.7731851199076</v>
       </c>
       <c r="C2" t="n">
-        <v>1710.380556858352</v>
+        <v>450.8106681794958</v>
       </c>
       <c r="D2" t="n">
-        <v>1352.114858251602</v>
+        <v>92.54496957274534</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>92.54496957274534</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>85.59946882354187</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>71.67606476213277</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>71.67606476213277</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X2" t="n">
-        <v>2465.942913862886</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="Y2" t="n">
-        <v>2465.942913862886</v>
+        <v>819.7731851199076</v>
       </c>
     </row>
     <row r="3">
@@ -4403,28 +4403,28 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2077.307539226174</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>2077.307539226174</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>2077.307539226174</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>2077.307539226174</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>2077.307539226174</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2077.307539226174</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2519.585513306029</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>2305.297090124192</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>2305.297090124192</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>2305.297090124192</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V4" t="n">
-        <v>2305.297090124192</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W4" t="n">
-        <v>2305.297090124192</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="X4" t="n">
-        <v>2077.307539226174</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="Y4" t="n">
-        <v>2077.307539226174</v>
+        <v>290.5651556036576</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1332.357248852006</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="C5" t="n">
-        <v>1332.357248852006</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="D5" t="n">
-        <v>1332.357248852006</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="E5" t="n">
-        <v>946.5689962537617</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="F5" t="n">
-        <v>535.5830914641542</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6192833623411</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6192833623411</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4600,19 +4600,19 @@
         <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177208</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>2092.422847177208</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X5" t="n">
-        <v>1718.957088916128</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y5" t="n">
-        <v>1718.957088916128</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
         <v>99.5995062532301</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587812</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>281.2479710834698</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>281.2479710834698</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>281.2479710834698</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>281.2479710834698</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>281.2479710834698</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>281.2479710834698</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.341643278937</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>588.5097680147103</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>202.721515416466</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>195.7760146672626</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>181.8526106058535</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,10 +4822,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473041</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.546461473041</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.546461473041</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1993.546461473041</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y8" t="n">
-        <v>1749.341643278937</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>570.4215814289018</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>281.2479710834698</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>281.2479710834698</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>281.2479710834698</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>281.2479710834698</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>281.2479710834698</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,22 +5053,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5077,7 +5077,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5108,40 +5108,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="K12" t="n">
-        <v>388.8958536704856</v>
+        <v>379.2248062063381</v>
       </c>
       <c r="L12" t="n">
-        <v>618.8589595388348</v>
+        <v>993.1218759632267</v>
       </c>
       <c r="M12" t="n">
-        <v>1387.227105931296</v>
+        <v>993.1218759632267</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.747761568914</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O12" t="n">
-        <v>1980.501175652877</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5235,16 +5235,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1263.171146058931</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>1263.171146058931</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>1263.171146058931</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>1042.378566915401</v>
       </c>
     </row>
     <row r="14">
@@ -5257,34 +5257,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5296,31 +5296,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K15" t="n">
-        <v>264.0657286834809</v>
+        <v>508.1073603047984</v>
       </c>
       <c r="L15" t="n">
-        <v>494.02883455183</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>814.3641540815318</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N15" t="n">
-        <v>1618.775732345683</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O15" t="n">
-        <v>2288.239493648342</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P15" t="n">
-        <v>2470.882971261693</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119728</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W16" t="n">
-        <v>1322.84934122136</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X16" t="n">
-        <v>1322.84934122136</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>394.5250474102529</v>
       </c>
     </row>
     <row r="17">
@@ -5494,28 +5494,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5533,31 +5533,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5582,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115524</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>413.0432218861031</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581962</v>
+        <v>821.846685011157</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>1133.156678913841</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W19" t="n">
-        <v>1043.47381675789</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X19" t="n">
-        <v>815.4842658598729</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y19" t="n">
-        <v>594.6916867163428</v>
+        <v>981.5095496229244</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5831,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>1002.792923427374</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>1636.518449498637</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1096.475226584133</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="C22" t="n">
-        <v>972.2646934632137</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5940,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W22" t="n">
-        <v>1498.916270557902</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X22" t="n">
-        <v>1498.916270557902</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="Y22" t="n">
-        <v>1278.123691414372</v>
+        <v>894.4654733330078</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
         <v>1701.09316900344</v>
@@ -5977,22 +5977,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,10 +6007,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>232.333204354932</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L24" t="n">
-        <v>479.098332261396</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>334.2881267578673</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>527.8045051785809</v>
+        <v>256.0479578003561</v>
       </c>
       <c r="C25" t="n">
-        <v>358.8683222506741</v>
+        <v>256.0479578003561</v>
       </c>
       <c r="D25" t="n">
-        <v>208.7516828383384</v>
+        <v>256.0479578003561</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>256.0479578003561</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>256.0479578003561</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6180,19 +6180,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>1447.652270087329</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>1158.235100050368</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X25" t="n">
-        <v>930.2455491523508</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y25" t="n">
-        <v>709.4529700088207</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6217,40 +6217,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>592.8217113586352</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115524</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>334.2881267578673</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>879.2482765610114</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C28" t="n">
-        <v>710.3120936331045</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6417,19 +6417,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>1498.916270557902</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X28" t="n">
-        <v>1281.689320534781</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y28" t="n">
-        <v>1060.896741391251</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6484,7 +6484,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6542,28 +6542,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L30" t="n">
-        <v>904.39166832551</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M30" t="n">
-        <v>1672.759814717971</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N30" t="n">
-        <v>2017.280470355589</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O30" t="n">
-        <v>2266.033884439551</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>208.7516828383384</v>
+        <v>565.0010960824696</v>
       </c>
       <c r="C31" t="n">
-        <v>208.7516828383384</v>
+        <v>565.0010960824696</v>
       </c>
       <c r="D31" t="n">
-        <v>208.7516828383384</v>
+        <v>565.0010960824696</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1041.981979867628</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>752.8533410811858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V31" t="n">
-        <v>498.168852875299</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W31" t="n">
-        <v>208.7516828383384</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X31" t="n">
-        <v>208.7516828383384</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="Y31" t="n">
-        <v>208.7516828383384</v>
+        <v>565.0010960824696</v>
       </c>
     </row>
     <row r="32">
@@ -6697,19 +6697,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6718,16 +6718,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>530.005181897948</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L33" t="n">
-        <v>759.9682877662972</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M33" t="n">
-        <v>1080.303607295999</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N33" t="n">
-        <v>1884.71518556015</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O33" t="n">
-        <v>2554.178946862809</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1029.666285013068</v>
+        <v>990.7828679390639</v>
       </c>
       <c r="C34" t="n">
-        <v>860.7301020851612</v>
+        <v>821.846685011157</v>
       </c>
       <c r="D34" t="n">
-        <v>710.6134626728254</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E34" t="n">
-        <v>562.7003690904323</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123425</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W34" t="n">
-        <v>1498.916270557902</v>
+        <v>990.7828679390639</v>
       </c>
       <c r="X34" t="n">
-        <v>1432.107328986838</v>
+        <v>990.7828679390639</v>
       </c>
       <c r="Y34" t="n">
-        <v>1211.314749843308</v>
+        <v>990.7828679390639</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,16 +6931,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6961,13 +6961,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -6979,10 +6979,10 @@
         <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7004,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>664.5909712050459</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L36" t="n">
-        <v>894.5540770733951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M36" t="n">
-        <v>1214.889396603097</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N36" t="n">
-        <v>1559.410052240715</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>420.3226148324571</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C37" t="n">
-        <v>420.3226148324571</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D37" t="n">
-        <v>420.3226148324571</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E37" t="n">
-        <v>420.3226148324571</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F37" t="n">
-        <v>420.3226148324571</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>675.007103038344</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>420.3226148324571</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>420.3226148324571</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X37" t="n">
-        <v>420.3226148324571</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="Y37" t="n">
-        <v>420.3226148324571</v>
+        <v>861.4909633328887</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,25 +7159,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,7 +7192,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M39" t="n">
-        <v>854.8783002638691</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N39" t="n">
-        <v>1659.28987852802</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O39" t="n">
-        <v>2328.753639830679</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>991.0842369787848</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C40" t="n">
-        <v>822.1480540508779</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D40" t="n">
-        <v>822.1480540508779</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7368,16 +7368,16 @@
         <v>1275.130855347408</v>
       </c>
       <c r="V40" t="n">
-        <v>1275.130855347408</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W40" t="n">
-        <v>1275.130855347408</v>
+        <v>931.1046727766346</v>
       </c>
       <c r="X40" t="n">
-        <v>1275.130855347408</v>
+        <v>931.1046727766346</v>
       </c>
       <c r="Y40" t="n">
-        <v>1054.338276203878</v>
+        <v>710.3120936331045</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,25 +7396,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7432,7 +7432,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7490,28 +7490,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M42" t="n">
-        <v>1897.067196363111</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N42" t="n">
-        <v>1897.067196363111</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O42" t="n">
-        <v>2145.820610447073</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>861.4909633328887</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C43" t="n">
-        <v>692.5547804049818</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D43" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>1240.217519157017</v>
       </c>
       <c r="V43" t="n">
-        <v>1209.787631771461</v>
+        <v>985.5330309511296</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.787631771461</v>
+        <v>696.115860914169</v>
       </c>
       <c r="X43" t="n">
-        <v>1209.787631771461</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y43" t="n">
-        <v>1043.139428163128</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7651,7 +7651,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,10 +7666,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7727,19 +7727,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L45" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M45" t="n">
-        <v>1442.796708849622</v>
+        <v>334.2881267578673</v>
       </c>
       <c r="N45" t="n">
-        <v>1808.163466324677</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O45" t="n">
         <v>1808.163466324677</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1164.055751909234</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1164.055751909234</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>1164.055751909234</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>1113.513998854602</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8777,13 +8777,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9020,13 +9020,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,25 +9248,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>288.4091825776758</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417975</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,22 +9956,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>182.0340742867951</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>381.5997261417975</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10193,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10430,13 +10430,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10445,13 +10445,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,13 +10667,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10688,7 +10688,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10919,10 +10919,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>2.691396268713845</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11162,7 +11162,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,19 +11378,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417975</v>
       </c>
       <c r="N45" t="n">
-        <v>35.8627573848708</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.586375558166765e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>18.7499700698464</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>222.1810906972069</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>171.6828975533076</v>
       </c>
     </row>
     <row r="17">
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>9.180585132978109</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23949,16 +23949,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>197.7369648022</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>44.27839330891796</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,13 +24180,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>93.86356848166639</v>
       </c>
     </row>
     <row r="23">
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>9.251010786708008</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>201.3862828579601</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24657,19 +24657,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>10.654974866147</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>173.3651261629883</v>
       </c>
     </row>
     <row r="29">
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>144.1562429244522</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>77.06777566241342</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>257.1561341261581</v>
       </c>
       <c r="X34" t="n">
-        <v>159.5688032336831</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>105.9521741567361</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>133.0335969586789</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>117.2104813490949</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>198.0747209153531</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>228.0463984953037</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.60293177984579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>175.6733198649517</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967304</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967308</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>899366.8373967308</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967308</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>899366.8373967306</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967308</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>899366.8373967308</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
+        <v>469234.8716852506</v>
+      </c>
+      <c r="F2" t="n">
         <v>469234.8716852505</v>
-      </c>
-      <c r="F2" t="n">
-        <v>469234.8716852503</v>
       </c>
       <c r="G2" t="n">
         <v>469234.8716852505</v>
       </c>
       <c r="H2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="I2" t="n">
         <v>469234.8716852503</v>
       </c>
       <c r="J2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="K2" t="n">
         <v>469234.8716852505</v>
-      </c>
-      <c r="K2" t="n">
-        <v>469234.8716852504</v>
       </c>
       <c r="L2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="M2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="N2" t="n">
         <v>469234.8716852504</v>
       </c>
-      <c r="N2" t="n">
-        <v>469234.8716852505</v>
-      </c>
       <c r="O2" t="n">
-        <v>469234.8716852506</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="P2" t="n">
         <v>469234.8716852504</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,31 +26420,31 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758696</v>
-      </c>
-      <c r="K4" t="n">
-        <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
         <v>787.7936905758695</v>
@@ -26453,13 +26453,13 @@
         <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26475,16 +26475,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871659</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26493,16 +26493,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-319261.0345400033</v>
+        <v>-319261.0345400032</v>
       </c>
       <c r="C6" t="n">
         <v>270706.8446745413</v>
       </c>
       <c r="D6" t="n">
-        <v>270706.8446745414</v>
+        <v>270706.8446745413</v>
       </c>
       <c r="E6" t="n">
-        <v>-148700.284430938</v>
+        <v>-149674.8756906593</v>
       </c>
       <c r="F6" t="n">
-        <v>376459.7520459578</v>
+        <v>375485.1607862363</v>
       </c>
       <c r="G6" t="n">
-        <v>376459.752045958</v>
+        <v>375485.1607862362</v>
       </c>
       <c r="H6" t="n">
-        <v>376459.752045958</v>
+        <v>375485.1607862363</v>
       </c>
       <c r="I6" t="n">
-        <v>376459.7520459578</v>
+        <v>375485.1607862362</v>
       </c>
       <c r="J6" t="n">
-        <v>200036.532853365</v>
+        <v>199061.9415936432</v>
       </c>
       <c r="K6" t="n">
-        <v>376459.752045958</v>
+        <v>375485.1607862363</v>
       </c>
       <c r="L6" t="n">
-        <v>376459.7520459579</v>
+        <v>375485.1607862363</v>
       </c>
       <c r="M6" t="n">
-        <v>241658.7368121208</v>
+        <v>240684.1455523994</v>
       </c>
       <c r="N6" t="n">
-        <v>376459.752045958</v>
+        <v>375485.1607862362</v>
       </c>
       <c r="O6" t="n">
-        <v>376459.7520459581</v>
+        <v>375485.1607862363</v>
       </c>
       <c r="P6" t="n">
-        <v>376459.7520459579</v>
+        <v>375485.1607862362</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.926370499017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>69.33174441270478</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>134.3755641325106</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>90.99707615940832</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27548,19 +27548,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>102.3698827537139</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>248.6154749726216</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>88.89177771830438</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,13 +27672,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27785,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>10.74592769735753</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>141.433633396526</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>197.292240266723</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>144.475168643891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28022,16 +28022,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>10.74592769735776</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>98.0275266632413</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>111.7343803072865</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31381,13 +31381,13 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>149.8971812516336</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>139.4326257134861</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034983</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,19 +31594,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653305</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>158.2324794830454</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>166.9893280749461</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508807</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>84.13734909203626</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32326,19 +32326,19 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
@@ -32551,28 +32551,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>316.5557641833944</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
@@ -32733,7 +32733,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S23" t="n">
         <v>76.06970478104648</v>
@@ -32788,16 +32788,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>232.4121821352565</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813461</v>
@@ -32812,7 +32812,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677464</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130947006</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -33025,16 +33025,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>464.5362854813461</v>
@@ -33207,7 +33207,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S29" t="n">
         <v>76.06970478104648</v>
@@ -33262,31 +33262,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>106.5672573837441</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677464</v>
@@ -33499,10 +33499,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>142.5346749772348</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -33517,10 +33517,10 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33681,7 +33681,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S35" t="n">
         <v>76.06970478104648</v>
@@ -33736,10 +33736,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>278.4799167015761</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -33748,10 +33748,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458549</v>
@@ -33973,13 +33973,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -33997,7 +33997,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
@@ -34210,25 +34210,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>291.3194390094541</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34447,22 +34447,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
         <v>341.0678223458549</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>323.920986939093</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>284.856277521265</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>351.477689300553</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686861</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>740.606998911101</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>154.2328627418638</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6668875337001</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>640.126794011376</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>94.57074316089751</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>239.4656922197792</v>
       </c>
       <c r="N24" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36612,7 +36612,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502048</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>332.6095128747343</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>239.4656922197792</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>291.055618609351</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>269.1584730154544</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N33" t="n">
         <v>812.5369477415663</v>
@@ -37165,13 +37165,13 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>405.1037147397957</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37408,7 +37408,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N39" t="n">
         <v>812.5369477415663</v>
@@ -37639,13 +37639,13 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>209.7848112002385</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>614.8904688374357</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>239.4656922197792</v>
       </c>
       <c r="N45" t="n">
-        <v>369.0573307828836</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1820986.452454482</v>
+        <v>1825925.715303513</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>603160.6374503499</v>
+        <v>483549.5166500519</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>17.55575211235063</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>132.6313220765166</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -752,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88.83490402252897</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>158.2605707690898</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>300.3758975627546</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>134.6751203255737</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>39.25266187003822</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -1077,7 +1077,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>284.5615160058696</v>
       </c>
       <c r="H8" t="n">
-        <v>126.6305324976341</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>134.6751203255735</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>30.60408762095413</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883384993</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>233.3876732539816</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>194.2374908591023</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527396</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>5.562624396424693</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.90175579878716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>158.0662359656497</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -2295,19 +2295,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>192.3228038217186</v>
       </c>
       <c r="Y22" t="n">
-        <v>124.7210848704284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>157.2425576766696</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>212.0917728165956</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>33.25006395641616</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>45.21952718910648</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>74.71405636565626</v>
       </c>
       <c r="E31" t="n">
-        <v>2.277719722116939</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -3006,19 +3006,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>29.36686421043293</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>92.67605843035824</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,19 +3666,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>88.44827742123786</v>
+        <v>256.604714631364</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>91.33209909790605</v>
       </c>
       <c r="U43" t="n">
-        <v>58.19095390327369</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>24.09124482852429</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>819.7731851199076</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="C2" t="n">
-        <v>450.8106681794958</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D2" t="n">
-        <v>92.54496957274534</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>92.54496957274534</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>85.59946882354187</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>71.67606476213277</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>71.67606476213277</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2563.178058617701</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2344.543391589763</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="W2" t="n">
-        <v>1583.378275356799</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="X2" t="n">
-        <v>1209.912517095719</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="Y2" t="n">
-        <v>819.7731851199076</v>
+        <v>2090.781606227855</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,19 +4412,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>290.5651556036576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>290.5651556036576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>290.5651556036576</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1112.426648284105</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C5" t="n">
-        <v>1112.426648284105</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D5" t="n">
-        <v>1112.426648284105</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>1112.426648284105</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>1485.892406545185</v>
+        <v>2139.977308118178</v>
       </c>
       <c r="X5" t="n">
-        <v>1112.426648284105</v>
+        <v>1766.511549857098</v>
       </c>
       <c r="Y5" t="n">
-        <v>1112.426648284105</v>
+        <v>1376.372217881286</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4652,43 +4652,43 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E7" t="n">
-        <v>698.7120650600564</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G7" t="n">
         <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1315.737983561872</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C8" t="n">
-        <v>946.7754666214607</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D8" t="n">
-        <v>588.5097680147103</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E8" t="n">
-        <v>202.721515416466</v>
+        <v>752.3647613633757</v>
       </c>
       <c r="F8" t="n">
-        <v>195.7760146672626</v>
+        <v>341.3788565737681</v>
       </c>
       <c r="G8" t="n">
-        <v>181.8526106058535</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.477155601806</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>1702.337823625994</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4941,25 +4941,25 @@
         <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>698.7120650600561</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D10" t="n">
-        <v>698.7120650600561</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="E10" t="n">
-        <v>698.7120650600561</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,22 +5053,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5077,7 +5077,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5108,40 +5108,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>379.2248062063381</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>993.1218759632267</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M12" t="n">
-        <v>993.1218759632267</v>
+        <v>772.8730769161741</v>
       </c>
       <c r="N12" t="n">
-        <v>1797.533454227377</v>
+        <v>1577.284655180325</v>
       </c>
       <c r="O12" t="n">
-        <v>1797.533454227377</v>
+        <v>2246.748416482984</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>860.7301020851612</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C13" t="n">
-        <v>860.7301020851612</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D13" t="n">
-        <v>710.6134626728254</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123425</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028581</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>1263.171146058931</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W13" t="n">
-        <v>1263.171146058931</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="X13" t="n">
-        <v>1263.171146058931</v>
+        <v>870.4344461847497</v>
       </c>
       <c r="Y13" t="n">
-        <v>1042.378566915401</v>
+        <v>674.2349604684848</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5296,34 +5296,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,19 +5354,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047984</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L15" t="n">
-        <v>1122.004430061687</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M15" t="n">
-        <v>1890.372576454148</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>394.5250474102529</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="C16" t="n">
-        <v>394.5250474102529</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="D16" t="n">
-        <v>394.5250474102529</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,7 +5442,7 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471189</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609662</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550793</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W16" t="n">
-        <v>441.9005583181187</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X16" t="n">
-        <v>441.9005583181187</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="Y16" t="n">
-        <v>394.5250474102529</v>
+        <v>102.8359039819269</v>
       </c>
     </row>
     <row r="17">
@@ -5515,16 +5515,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5606,7 +5606,7 @@
         <v>1890.372576454149</v>
       </c>
       <c r="N18" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>821.846685011157</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.499100520942</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>981.5095496229244</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5840,10 +5840,10 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>1890.372576454149</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N21" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O21" t="n">
         <v>2623.573505376138</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>712.8170085027681</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C22" t="n">
-        <v>712.8170085027681</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D22" t="n">
-        <v>562.7003690904323</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E22" t="n">
-        <v>562.7003690904323</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
         <v>247.6350999123426</v>
@@ -5943,19 +5943,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>1020.446367141521</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>1020.446367141521</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>1020.446367141521</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y22" t="n">
-        <v>894.4654733330078</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,10 +6007,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6077,10 +6077,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M24" t="n">
-        <v>334.2881267578673</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>1221.963989254138</v>
       </c>
       <c r="O24" t="n">
         <v>1808.163466324677</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>256.0479578003561</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C25" t="n">
-        <v>256.0479578003561</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D25" t="n">
-        <v>256.0479578003561</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E25" t="n">
-        <v>256.0479578003561</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>256.0479578003561</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6177,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286132</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X25" t="n">
-        <v>437.6964226305959</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="Y25" t="n">
-        <v>437.6964226305959</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6229,16 +6229,16 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6314,7 +6314,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M27" t="n">
-        <v>334.2881267578673</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N27" t="n">
         <v>1138.699705022018</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>392.0201325405893</v>
+        <v>764.9211061669174</v>
       </c>
       <c r="C28" t="n">
-        <v>392.0201325405893</v>
+        <v>595.9849232390105</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>445.8682838266748</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655738</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286132</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X28" t="n">
-        <v>437.6964226305959</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="Y28" t="n">
-        <v>392.0201325405893</v>
+        <v>764.9211061669174</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6463,13 +6463,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6481,10 +6481,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6551,19 +6551,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M30" t="n">
-        <v>323.6581146605672</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N30" t="n">
-        <v>1128.069692924718</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.0010960824696</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="C31" t="n">
-        <v>565.0010960824696</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="D31" t="n">
-        <v>565.0010960824696</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E31" t="n">
         <v>562.7003690904323</v>
@@ -6654,19 +6654,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W31" t="n">
-        <v>785.7936752259998</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7936752259998</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.0010960824696</v>
+        <v>786.0822064765186</v>
       </c>
     </row>
     <row r="32">
@@ -6700,7 +6700,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514082</v>
@@ -6788,19 +6788,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M33" t="n">
-        <v>323.6581146605672</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N33" t="n">
-        <v>1128.069692924718</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>990.7828679390639</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>821.846685011157</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1275.130855347408</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>1020.446367141521</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>990.7828679390639</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>990.7828679390639</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>990.7828679390639</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6928,40 +6928,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M36" t="n">
-        <v>323.6581146605672</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N36" t="n">
-        <v>1128.069692924718</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>861.4909633328887</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C37" t="n">
-        <v>692.5547804049818</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D37" t="n">
-        <v>542.438140992646</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E37" t="n">
-        <v>394.5250474102529</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>955.1031435655738</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>861.4909633328887</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y37" t="n">
-        <v>861.4909633328887</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="38">
@@ -7171,37 +7171,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M39" t="n">
-        <v>323.6581146605672</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.069692924718</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>710.3120936331045</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C40" t="n">
-        <v>710.3120936331045</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D40" t="n">
-        <v>560.1954542207687</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U40" t="n">
-        <v>1275.130855347408</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V40" t="n">
-        <v>1020.446367141521</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W40" t="n">
-        <v>931.1046727766346</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="X40" t="n">
-        <v>931.1046727766346</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y40" t="n">
-        <v>710.3120936331045</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,25 +7396,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7432,7 +7432,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7499,7 +7499,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M42" t="n">
-        <v>323.6581146605672</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N42" t="n">
         <v>1128.069692924718</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>247.3337308726216</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C43" t="n">
-        <v>247.3337308726216</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1406.661625004462</v>
       </c>
       <c r="U43" t="n">
-        <v>1240.217519157017</v>
+        <v>1117.53298621802</v>
       </c>
       <c r="V43" t="n">
-        <v>985.5330309511296</v>
+        <v>862.8484980121333</v>
       </c>
       <c r="W43" t="n">
-        <v>696.115860914169</v>
+        <v>862.8484980121333</v>
       </c>
       <c r="X43" t="n">
-        <v>468.1263100161517</v>
+        <v>634.8589471141159</v>
       </c>
       <c r="Y43" t="n">
-        <v>247.3337308726216</v>
+        <v>414.0663679705859</v>
       </c>
     </row>
     <row r="44">
@@ -7627,40 +7627,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M45" t="n">
-        <v>334.2881267578673</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N45" t="n">
         <v>1138.699705022018</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>271.6683216085047</v>
       </c>
     </row>
   </sheetData>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8777,13 +8777,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9257,7 +9257,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9494,7 +9494,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -9725,7 +9725,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9962,7 +9962,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417975</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10199,7 +10199,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>370.8623401849288</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10436,7 +10436,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>370.8623401849288</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10673,7 +10673,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>370.8623401849288</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10910,7 +10910,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>370.8623401849288</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11147,7 +11147,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>370.8623401849288</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11384,7 +11384,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>381.5997261417975</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.586375558166765e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23475,16 +23475,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>18.7499700698464</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>24.34716249299254</v>
       </c>
     </row>
     <row r="14">
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>139.8584236265065</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6828975533076</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>9.180585132978109</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>33.38685156731853</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.86356848166639</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>9.251010786708008</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24417,22 +24417,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>6.492880535499154</v>
       </c>
     </row>
     <row r="26">
@@ -24603,19 +24603,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>113.183898690153</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24654,22 +24654,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>173.3651261629883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,10 +24843,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>73.90141665255609</v>
       </c>
       <c r="E31" t="n">
-        <v>144.1562429244522</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>257.1561341261581</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25314,22 +25314,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>29.89407122271366</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25365,7 +25365,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>133.0335969586789</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25554,19 +25554,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>198.0747209153531</v>
+        <v>29.918283705227</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,13 +25788,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25836,19 +25836,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>130.2154619604832</v>
       </c>
       <c r="U43" t="n">
-        <v>228.0463984953037</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>155.740735353413</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26073,16 +26073,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>899366.8373967304</v>
+        <v>899366.8373967308</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>899366.8373967308</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967308</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967308</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>899366.8373967308</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>899366.8373967308</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967308</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185696</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852506</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="F2" t="n">
         <v>469234.8716852505</v>
       </c>
       <c r="G2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="H2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="I2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="J2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="K2" t="n">
         <v>469234.8716852503</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>469234.8716852503</v>
       </c>
-      <c r="K2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="L2" t="n">
-        <v>469234.8716852504</v>
-      </c>
       <c r="M2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="N2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="O2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="P2" t="n">
         <v>469234.8716852504</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758693</v>
@@ -26435,7 +26435,7 @@
         <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758695</v>
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-319261.0345400032</v>
+        <v>-319261.0345400033</v>
       </c>
       <c r="C6" t="n">
-        <v>270706.8446745413</v>
+        <v>270706.8446745414</v>
       </c>
       <c r="D6" t="n">
         <v>270706.8446745413</v>
       </c>
       <c r="E6" t="n">
-        <v>-149674.8756906593</v>
+        <v>-148797.7435569104</v>
       </c>
       <c r="F6" t="n">
-        <v>375485.1607862363</v>
+        <v>376362.2929199858</v>
       </c>
       <c r="G6" t="n">
-        <v>375485.1607862362</v>
+        <v>376362.2929199857</v>
       </c>
       <c r="H6" t="n">
-        <v>375485.1607862363</v>
+        <v>376362.2929199857</v>
       </c>
       <c r="I6" t="n">
-        <v>375485.1607862362</v>
+        <v>376362.2929199858</v>
       </c>
       <c r="J6" t="n">
-        <v>199061.9415936432</v>
+        <v>199939.0737273928</v>
       </c>
       <c r="K6" t="n">
-        <v>375485.1607862363</v>
+        <v>376362.2929199857</v>
       </c>
       <c r="L6" t="n">
-        <v>375485.1607862363</v>
+        <v>376362.2929199857</v>
       </c>
       <c r="M6" t="n">
-        <v>240684.1455523994</v>
+        <v>241561.2776861483</v>
       </c>
       <c r="N6" t="n">
-        <v>375485.1607862362</v>
+        <v>376362.2929199857</v>
       </c>
       <c r="O6" t="n">
-        <v>375485.1607862363</v>
+        <v>376362.2929199857</v>
       </c>
       <c r="P6" t="n">
-        <v>375485.1607862362</v>
+        <v>376362.2929199857</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>134.3755641325106</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>41.78439073245494</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90.99707615940832</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866331</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,19 +27621,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>248.6154749726216</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>48.86507115465844</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,13 +27782,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>10.74592769735753</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>129.2226540149254</v>
       </c>
       <c r="H8" t="n">
-        <v>197.292240266723</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>10.74592769735776</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.3615341713841</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -31132,7 +31132,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31147,7 +31147,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,22 +31357,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942361</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>139.4326257134861</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31606,10 +31606,10 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653305</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>132.99849770713</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31755,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>158.2324794830454</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>126.0475280469437</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
@@ -32004,16 +32004,16 @@
         <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946991</v>
@@ -32028,7 +32028,7 @@
         <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
         <v>0.2670576580354892</v>
@@ -32074,22 +32074,22 @@
         <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>216.4869287318327</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>392.6063366508807</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32104,10 +32104,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,19 +32153,19 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.144705426375</v>
@@ -32174,22 +32174,22 @@
         <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32326,7 +32326,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>392.6063366508803</v>
+        <v>141.3402618185954</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>129.3623873097339</v>
       </c>
       <c r="N21" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32578,10 +32578,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,16 +32727,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32800,10 +32800,10 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>340.85460907735</v>
       </c>
       <c r="P24" t="n">
         <v>341.0678223458549</v>
@@ -32815,10 +32815,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33037,7 +33037,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,16 +33201,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33274,7 +33274,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33286,13 +33286,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33511,7 +33511,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33523,13 +33523,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,25 +33666,25 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540894</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33748,7 +33748,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33760,13 +33760,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33985,7 +33985,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33997,13 +33997,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34222,7 +34222,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,16 +34386,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34459,7 +34459,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34795,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>323.920986939093</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>284.856277521265</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594833</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415662</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714617</v>
+        <v>310.5358892725506</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209231</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686861</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005177</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594833</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>776.129440800466</v>
       </c>
       <c r="N15" t="n">
-        <v>740.606998911101</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35974,10 +35974,10 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>740.6069989111005</v>
+        <v>489.3409240788156</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>452.9334171377155</v>
       </c>
       <c r="N21" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>239.4656922197792</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>592.1206839096351</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197792</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>228.7283062629105</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -36934,7 +36934,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>228.7283062629105</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
@@ -37171,7 +37171,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,19 +37308,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095148</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,13 +37393,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>228.7283062629105</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37408,7 +37408,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>228.7283062629105</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
@@ -37645,7 +37645,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,13 +37867,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>228.7283062629105</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -37882,7 +37882,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,13 +38104,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>239.4656922197792</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
